--- a/REGULAR/SP-VMO/REYES, NORALYN BEDUA.xlsx
+++ b/REGULAR/SP-VMO/REYES, NORALYN BEDUA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="383">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1177,6 +1177,12 @@
   </si>
   <si>
     <t>UT(0-0-48)</t>
+  </si>
+  <si>
+    <t>8/15,16/2023</t>
+  </si>
+  <si>
+    <t>9/25-27/2023</t>
   </si>
 </sst>
 </file>
@@ -3642,9 +3648,9 @@
   <dimension ref="A2:K541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A468" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A480" activePane="bottomLeft"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="E474" sqref="E474"/>
+      <selection pane="bottomLeft" activeCell="K498" sqref="K498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3807,7 +3813,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>79.188499999999976</v>
+        <v>82.938499999999976</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3817,7 +3823,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>165.5</v>
+        <v>166.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14925,15 +14931,17 @@
       <c r="B496" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C496" s="13"/>
+      <c r="C496" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D496" s="39">
         <v>2</v>
       </c>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G496" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
@@ -14946,37 +14954,51 @@
       <c r="A497" s="40">
         <v>45169</v>
       </c>
-      <c r="B497" s="20"/>
-      <c r="C497" s="13"/>
+      <c r="B497" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C497" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D497" s="39"/>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G497" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20"/>
+      <c r="K497" s="20" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>45199</v>
       </c>
-      <c r="B498" s="20"/>
-      <c r="C498" s="13"/>
+      <c r="B498" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C498" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D498" s="39"/>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H498" s="39"/>
+      <c r="G498" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H498" s="39">
+        <v>3</v>
+      </c>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20"/>
+      <c r="K498" s="20" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
@@ -15843,7 +15865,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>244.68849999999998</v>
+        <v>249.18849999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/SP-VMO/REYES, NORALYN BEDUA.xlsx
+++ b/REGULAR/SP-VMO/REYES, NORALYN BEDUA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="386">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1189,6 +1189,9 @@
   </si>
   <si>
     <t>11/7-9/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1903,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1946,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2010,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2070,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2136,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2199,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2297,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2356,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2421,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2464,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2539,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2725,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2791,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2849,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2915,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2971,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3046,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3089,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3155,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3211,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,7 +3307,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K542" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K543" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3651,12 +3654,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K542"/>
+  <dimension ref="A2:K543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A486" activePane="bottomLeft"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="L496" sqref="L496"/>
+      <selection pane="bottomLeft" activeCell="H503" sqref="H503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3822,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.188499999999976</v>
+        <v>87.938499999999976</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3829,7 +3832,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>159.5</v>
+        <v>162.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15039,13 +15042,15 @@
       <c r="B500" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C500" s="13"/>
+      <c r="C500" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D500" s="39"/>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
-      <c r="G500" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G500" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H500" s="39">
         <v>3</v>
@@ -15061,13 +15066,15 @@
       <c r="B501" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C501" s="13"/>
+      <c r="C501" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H501" s="39">
         <v>1</v>
@@ -15083,13 +15090,15 @@
         <v>45291</v>
       </c>
       <c r="B502" s="20"/>
-      <c r="C502" s="13"/>
+      <c r="C502" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
@@ -15097,18 +15106,15 @@
       <c r="K502" s="20"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="40">
-        <v>45322</v>
+      <c r="A503" s="49" t="s">
+        <v>385</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G503" s="13"/>
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
@@ -15116,9 +15122,11 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B504" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
       <c r="E504" s="9"/>
@@ -15127,14 +15135,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H504" s="39"/>
+      <c r="H504" s="39">
+        <v>1</v>
+      </c>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="48">
+        <v>45282</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15151,7 +15163,9 @@
       <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40"/>
+      <c r="A506" s="40">
+        <v>45382</v>
+      </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
       <c r="D506" s="39"/>
@@ -15727,20 +15741,36 @@
       <c r="K541" s="20"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="41"/>
-      <c r="B542" s="15"/>
-      <c r="C542" s="42"/>
-      <c r="D542" s="43"/>
+      <c r="A542" s="40"/>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
       <c r="E542" s="9"/>
-      <c r="F542" s="15"/>
-      <c r="G542" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H542" s="43"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
       <c r="I542" s="9"/>
-      <c r="J542" s="12"/>
-      <c r="K542" s="15"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="41"/>
+      <c r="B543" s="15"/>
+      <c r="C543" s="42"/>
+      <c r="D543" s="43"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="15"/>
+      <c r="G543" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="43"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="12"/>
+      <c r="K543" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15907,7 +15937,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>243.68849999999998</v>
+        <v>250.18849999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
